--- a/biology/Zoologie/Holophagus/Holophagus.xlsx
+++ b/biology/Zoologie/Holophagus/Holophagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holophagus est un genre éteint de poissons à membres charnus rattaché à la famille des Latimeriidae qui inclut les deux dernières espèces de cœlacanthes encore vivantes de nos jours.  
 Plusieurs espèces sont assignées à ce genre.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Holophagus vient du grec « Holos » (entier, tout) et « Phagô » (manger), indiquant que ce poisson pouvait tout manger.
 </t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cœlacanthe a un corps relativement trapu et une nageoire caudale courte. Holophagus ne diffère d'Undina que sur la forme de sa mâchoire inférieure, l'ornementation de ses écailles et les rayons de ses nageoires[2]. Pour P. Forey (1998) la nageoire caudale est asymétrique avec un lobe dorsal plus allongé[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cœlacanthe a un corps relativement trapu et une nageoire caudale courte. Holophagus ne diffère d'Undina que sur la forme de sa mâchoire inférieure, l'ornementation de ses écailles et les rayons de ses nageoires. Pour P. Forey (1998) la nageoire caudale est asymétrique avec un lobe dorsal plus allongé.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Classification phylogénique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Holophagus est rattaché à la famille des Latimeriidae qui inclut les deux dernières espèces de cœlacanthes encore vivantes de nos jours[3]. Le genre Undina est considéré par certains auteurs soit comme son groupe frère ou soit comme un simple synonyme d'Holophagus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Holophagus est rattaché à la famille des Latimeriidae qui inclut les deux dernières espèces de cœlacanthes encore vivantes de nos jours. Le genre Undina est considéré par certains auteurs soit comme son groupe frère ou soit comme un simple synonyme d'Holophagus.
 </t>
         </is>
       </c>
